--- a/outputs/FIJI1.xlsx
+++ b/outputs/FIJI1.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The Syllabus page is likely to contain critical information about the course schedule, assignments, grading criteria, and other essential details that a student would need to plan their term effectively. Abi's motivation to accomplish their tasks and their comprehensive information processing style would lead them to consider finding the Syllabus page as a crucial step towards achieving the overall use case of planning their term. The image clearly highlights the Syllabus link in the left pane, making it easy for Abi to identify and access it.</t>
+Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and plan their term, they would consider finding the syllabus as an essential step. Additionally, Abi's comprehensive information processing style would lead them to seek out the syllabus to gather all necessary information about the course.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page clearly indicates the location of the Syllabus link in the left pane, making it straightforward for Abi to identify and access it. The text in the main content area even explicitly instructs students to click on the Syllabus link to begin the course, reinforcing the action Abi needs to take. The highlighted Syllabus button in the "Start Here" section on the right further supports this step. Given Abi's comprehensive information processing style, these clear and direct instructions would make Abi feel confident about what to do next.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The word "Syllabus" is highlighted and mentioned multiple times, both in the main text and in the left navigation pane. This aligns with Abi's motivation to accomplish tasks and gather comprehensive information. The clear instructions and emphasis on the syllabus make it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking the Syllabus link, Abi will land on a page explicitly labeled "Course Syllabus," which confirms that they have taken the correct action. The page provides a detailed weekly schedule that outlines what is due in each class, including readings and projects. This information is comprehensive and directly relevant to Abi's goal of planning their term. The clear organization and presentation of the syllabus content align well with Abi's comprehensive information processing style and motivation to complete their tasks, ensuring they get all the necessary information to plan effectively.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which clearly indicates that they are in the right place. The page provides a detailed weekly schedule, which is essential for planning the term. This aligns with Abi's motivation to gather comprehensive information and plan their tasks. The detailed breakdown of what is due each week helps Abi understand the course requirements and deadlines, confirming that they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: A summary of activities and deadlines is critical for planning the term effectively. Abi is motivated to complete their tasks and would recognize that understanding the schedule and deadlines for projects, readings, and other coursework is essential to achieving this. The comprehensive information processing style of Abi would lead them to seek out a detailed summary to form a complete understanding of the course requirements. The "Syllabus – Weekly schedule" section prominently displayed on the Syllabus page provides this summary, making it clear that this step is crucial for planning the term.</t>
+Why: To plan their term effectively, Abi needs to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing their time. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the summary of activities and deadlines as an essential step toward achieving the overall use case. The syllabus page, which includes a weekly schedule, aligns with this need.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page clearly labels the section "Course Summary," which should guide Abi to scroll down and read through it. The "Syllabus – Weekly schedule" table is prominently displayed and follows immediately after the "Course Summary" heading, making it easy to find the detailed summary of activities and deadlines. Abi's comprehensive information processing style means that they are likely to read through the text and headings to ensure they gather all the necessary information. The organization and layout of the page are straightforward, making it clear to Abi what they need to do next.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page is clearly labeled with "Course Syllabus" and includes a section titled "Course Summary," which is prominently displayed. This aligns with Abi's motivation to gather comprehensive information and plan their term. The layout and headings make it clear that scrolling down to the "Course Summary" will provide the necessary details about activities and deadlines. The page is well-organized and provides a logical flow of information, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: If Abi scrolls down to the “Course Summary” and reads through it, they will find the "Syllabus – Weekly schedule" section, which provides a detailed breakdown of activities and deadlines for each week. This information is critical for planning the term, and its presence directly addresses Abi's goal. The clear and organized presentation of the schedule will let Abi know they are making progress toward their goal and provide them with the information they need to complete the course. The layout and structure of the page make it easy for Abi to identify and understand the relevant information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that outlines the activities and deadlines for the course. This clear and organized presentation of information aligns with Abi's motivation to gather comprehensive details and plan their term effectively. The table format makes it easy to understand what is due each week, confirming that Abi is making progress toward their goal and has the necessary information to plan their term.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Knowing what tools need to be installed or set up is crucial for completing the course assignments and projects, which is directly related to Abi's goal of planning the term effectively. Abi's motivation to accomplish their tasks and their comprehensive information processing style would lead them to consider finding a list of required tools as a necessary step. The "Tools" link is clearly visible at the top of the Syllabus page, indicating that this information is available and relevant for course preparation.</t>
+Why: To complete the course successfully, Abi needs to have the necessary tools installed and set up. This is a fundamental step in preparing for the coursework and ensuring they can complete assignments and projects. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the list of tools to be installed/setup as an essential step toward achieving the overall use case. The "Tools" link on the syllabus page suggests that this information is available and relevant.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The "Tools" tab is clearly labeled and prominently placed at the top of the Syllabus page, indicating that it is an accessible and relevant section. Given Abi's comprehensive information processing style, they will likely read through the available tabs to find pertinent information. The "Tools" tab is intuitively expected to contain information about the tools needed for the course. Therefore, Abi will know to click on it to find the list of tools to be installed or set up for the course.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Tools" tab is clearly labeled and positioned at the top of the page, making it easy to identify. Given Abi's motivation to gather comprehensive information and their need to install/setup necessary tools for the course, they would recognize that clicking on the "Tools" tab is a logical step. The page layout and labeling provide clear guidance, making it straightforward for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the "Tools" tab, Abi will land on a page that provides a detailed list of tools and instructions for setting them up. The page includes sections for Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it, each with specific instructions and links. This comprehensive information will confirm to Abi that they have done the right thing and are making progress toward their goal. The clear and organized presentation of the tools and setup instructions aligns with Abi's comprehensive information processing style and motivation to complete their tasks, ensuring they get all the necessary information to install and set up the required tools for the course.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Tools" tab, Abi lands on a page that provides detailed information about the tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. Each tool is described with instructions on how to access and use it. This aligns with Abi's motivation to gather comprehensive information and their need to install/setup necessary tools for the course. The detailed descriptions and instructions confirm that Abi is making progress toward their goal and has the necessary information to proceed.</t>
         </is>
       </c>
     </row>

--- a/outputs/FIJI1.xlsx
+++ b/outputs/FIJI1.xlsx
@@ -424,174 +424,180 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Yes, ABI would have thought of finding the Syllabus page as a step toward achieving her overall goal of planning out the course. This aligns with ABI's characteristics because:
-1. Process-oriented: The homepage directly tells users to "begin the course please click on Syllabus" and specifically mentions to "read through the syllabus - do actually read the whole thing carefully." This clear, step-by-step instruction would appeal to ABI's methodical approach.
-2. Comprehensive information processing: The page indicates that the syllabus contains "a lot of important information there," which would appeal to ABI's desire to thoroughly understand everything before proceeding.
-3. Risk-averse: The instruction emphasizes the importance of reading "the whole thing carefully," which aligns with ABI's preference to be thorough and avoid mistakes.
-4. Lower computer self-confidence: The syllabus link is clearly visible in both the left navigation panel and mentioned prominently in the instructions, making it easy to find without requiring advanced technical knowledge.
-The interface makes finding the Syllabus page straightforward through:
-- Clear text instructions
-- Multiple ways to access it (left menu and text link)
-- Explicit emphasis on its importance
-- Linear presentation of steps
-These elements would help ABI feel confident about this being the correct first step toward planning her course schedule.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Motivations
+3. Learning Style
+Why: ABI would consider finding the Syllabus as an essential first step because:
+- The page explicitly states "To begin the course please click on Syllabus" and mentions it contains "important information"
+- This aligns with ABI's comprehensive information processing style as she wants to gather complete information before proceeding
+- ABI is motivated to complete course tasks properly and follows process-oriented learning
+- The page provides clear instruction about starting with the syllabus, which matches ABI's preference for step-by-step processes
+- The text clearly indicates that the syllabus contains important course information, which would motivate ABI to read it for proper course planning</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yes, ABI would know what to do at this step because:
-1. The page has very clear navigation - there's a "Syllabus" link clearly visible in the left navigation menu.
-2. The main content explicitly directs students to "click on Syllabus in the left pane" as the first step to begin the course.
-3. For someone like ABI who:
-- Likes to thoroughly understand things before proceeding
-- Prefers comprehensive information
-- Tends to be risk-averse
-- Values process-oriented learning
-The page is well-suited because:
-- It provides explicit instructions
-- It explains why reading the syllabus is important ("there's a lot of important information there")
-- It outlines the sequence of steps to take
-- The syllabus link is prominently placed and easy to find
-The only potential hesitation ABI might have would be choosing between clicking the Syllabus link in the left menu versus the Syllabus button shown in the "Start Here" box, but both would lead to the same destination, so either choice would be correct.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: ABI would know what to do at this step because:
+- The page provides explicit, clear instructions stating "To begin the course please click on Syllabus in the left pane"
+- The Syllabus link is clearly visible in the left navigation menu
+- There are multiple ways to access the syllabus (left menu and Syllabus button in the Start Here section)
+- The instructions are presented in a step-by-step manner which aligns with ABI's process-oriented learning style
+- The page is not overwhelming with too many options, making it easier for ABI with her low computer self-efficacy
+- The importance of the syllabus is clearly explained, which helps ABI understand why this step is necessary
+- The interface is straightforward without requiring any technical knowledge or risky exploration</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yes, when a student clicks on the Syllabus link in the left navigation menu, they will know they've done the right thing because:
-1. The page clearly shows "Course Syllabus" as the main heading
-2. They can see a comprehensive weekly schedule showing all course topics and deliverables
-3. The page displays important course components including:
-   - Syllabus &amp; Schedule
-   - Course weight distribution (70% Assignments, 30% Quizzes)
-   - Weekly breakdown of readings and projects
-   - Due dates and deliverables
-   - Links to download the full syllabus PDF
-The page provides all the essential information needed to plan out the term, including:
-- What topics will be covered each week
-- When assignments and projects are due
-- Course grading breakdown
-- Course policies and expectations
-- Schedule of all readings and activities
-The clear organization and comprehensive information confirms they've reached the right place to get the course planning information they need. The navigation is straightforward and the landing page contains the expected syllabus content, providing clear feedback that they've successfully accessed the course syllabus.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Motivations
+Why: ABI would know she's on the right track because:
+- The page title clearly shows "Course Syllabus" indicating she reached the correct destination
+- The page provides comprehensive course information including:
+  * A weekly schedule showing all course topics and deadlines
+  * Clear breakdown of grade weights (70% Assignments, 30% Quizzes)
+  * Multiple formats to access syllabus information (PDF, web view)
+  * Organized tabs for different aspects (Schedule, Tools, Course Introduction, etc.)
+- The information is presented in a structured, systematic way that aligns with her process-oriented learning style
+- The weekly schedule provides a clear timeline of what's due when, helping her plan her term
+- The page contains detailed information without requiring exploration or risky actions
+- The content is organized in a way that allows for comprehensive information gathering, matching her information processing style</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yes, ABI would likely have considered finding the summary of activities and deadlines as an important step toward achieving her overall goal of planning her term. Here's why:
-1. Risk-averse tendencies:
-- The syllabus page shows a clear weekly schedule with specific dates and deliverables
-- ABI can see exactly what is due each week (readings and projects)
-- The grading breakdown is clearly displayed (70% assignments, 30% quizzes)
-2. Comprehensive information processing:
-- The page provides multiple ways to access information (PDF downloads, links to different sections)
-- There's a detailed week-by-week breakdown she can study carefully
-- Course expectations and deadlines are explicitly stated
-3. Need for thorough understanding:
-- The schedule shows both readings and project components for each week
-- Important deliverables are highlighted
-- There's a clear note about weekly discussion contributions being due Mondays at 8:00 am
-Given ABI's careful and methodical approach to technology use, having access to this detailed schedule would be exactly the kind of information she would want to find to help her plan her term effectively and avoid any surprises.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Motivations
+3. Attitude Toward Risk
+Why: ABI would consider finding the summary of activities and deadlines as an essential step because:
+- This aligns with her comprehensive information processing style - she wants to understand all requirements before proceeding
+- The page clearly shows a weekly schedule with detailed breakdown of activities and due dates
+- ABI is risk-averse and would want to know all deadlines upfront to avoid missing assignments
+- The page provides clear grade weightage information (70% Assignments, 30% Quizzes) which helps in understanding course requirements
+- The structured weekly schedule helps ABI plan her term systematically without any surprises
+- Her motivation to complete course tasks properly would drive her to understand the complete schedule of activities
+- The information is presented in an organized manner that allows for thorough planning, which aligns with her careful approach to coursework</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Looking at the page shown, ABI might face some challenges at this step for several reasons:
-1. Information Organization:
-- The "Course Summary" section appears to be empty/incomplete in the image
-- Instead, there's a detailed weekly schedule table below it
-- This mismatch between the expected "Course Summary" and what's actually shown could cause confusion
-2. ABI's Learning Style:
-- ABI likes to gather comprehensive information before proceeding
-- She prefers clear, step-by-step instructions
-- While the weekly schedule is detailed, it's not presented as an actionable summary of what she needs to do to complete the course
-3. Layout Issues:
-- The page has multiple tabs and sections (Syllabus &amp; Schedule, Tools, Course Introduction, etc.)
-- There's a grade breakdown on the right showing assignment weights (70% Assignments, 30% Quizzes)
-- ABI might feel uncertain about whether she's looking at the complete information
-Recommendation for Improvement:
-The page could be more ABI-friendly by:
-- Including a clear course summary section with key deadlines and requirements
-- Providing a checklist format of all required activities
-- Adding explicit instructions about how to use the weekly schedule in conjunction with the grade breakdown
-In conclusion: While the information is present on the page, it's not organized in a way that would give ABI the confidence that she has found everything she needs to plan her term effectively.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. None of the Above
+Why: ABI would likely struggle at this step because:
+- While there is a "Course Summary" heading visible, the section appears empty with just "Date", "Details", and "Due" columns but no actual content
+- The weekly schedule is presented separately and differently from the Course Summary section, which could be confusing
+- With ABI's comprehensive information processing style, she would be uncertain whether to focus on the empty Course Summary section or the Weekly Schedule below it
+- Given her low computer self-efficacy, she might question if she's doing something wrong when seeing an empty Course Summary section
+- The page presents two different ways to view schedule information (Course Summary and Weekly Schedule), which could overwhelm ABI
+- There's no clear instruction about which section (Course Summary or Weekly Schedule) would be more appropriate for finding activity deadlines
+- The disconnect between the section title "Course Summary" and its empty state would likely cause uncertainty for ABI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Looking at the image, the student has navigated to the Course Summary section, but this action only partially helps them achieve their goal. Here's why:
-1. The Course Summary section appears to be empty in the image, so they won't get the detailed information they need there.
-2. However, the page does show other useful information:
-- A weekly schedule table showing assignments and readings for each week
-- Assignment weights (70% for Assignments, 30% for Quizzes, 2% Extra Credit)
-- Links to important documents like "Schedule of Assignments and Quizzes for this term (PDF)"
-To fully achieve their goal of understanding course requirements and deadlines, they should:
-1. Download and review the Schedule of Assignments PDF
-2. Look at the weekly schedule table shown
-3. Note the assignment weight distribution
-The student would know they're making progress because they can see the course structure, but they need to take additional steps to get complete deadline information. The empty Course Summary suggests they need to look at other sections of the syllabus for full details.
-Feedback Indicators:
-- The presence of a detailed weekly schedule
-- The assignment weight breakdown
-- Available downloadable schedule documents
-These elements indicate they're in the right place but need to explore multiple sections to get all the planning information they need.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude Toward Risk
+Why: ABI would not feel confident she's making progress because:
+- The Course Summary section appears empty with only column headers (Date, Details, Due) but no actual content
+- With her comprehensive information processing style, she would be uncertain if:
+  * She's looking at the right section
+  * The empty Course Summary is an error
+  * She needs to do something else to make the content appear
+- Given her low computer self-efficacy, the empty section would make her doubt if she's done something wrong
+- While there is a Weekly Schedule below, it's not clear if this is meant to replace or complement the empty Course Summary
+- Her risk-averse nature would make her hesitant to assume the Weekly Schedule is sufficient when there's an empty Course Summary section
+- The presence of two different schedule presentations (empty Course Summary and Weekly Schedule) creates ambiguity about which one contains the complete information she needs
+- The lack of clear connection between these sections would not give her confidence that she's found all the necessary deadline information</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Based on the image shown, there is a "Tools" tab visible in the syllabus navigation menu, which suggests that ABI would likely find information about required course tools and setup. This is positioned prominently alongside other important course information like "Course Introduction" and "Communication Policy."
-Given ABI's comprehensive and methodical approach to problems, the presence of a dedicated "Tools" section would align with her information processing style. She would appreciate having a clear, specific section for technical requirements and setup instructions.
-However, ABI might want to:
-1. Double-check multiple sections of the syllabus to ensure she hasn't missed any tool-related information
-2. Verify if the information in the Tools section is complete and up-to-date
-3. Make sure she understands all the technical requirements before proceeding
-So yes, ABI likely would have thought of this as an important step toward achieving the overall use case of planning her term, and the course interface appears to have anticipated this need by including a dedicated Tools section in the syllabus navigation.</t>
+          <t>Answer: YES
+Facets:
+1. Attitude Toward Risk
+2. Computer Self-Efficacy
+3. Information Processing Style
+Why: ABI would consider finding the list of tools as an essential step because:
+- Given her low computer self-efficacy, she would want to ensure she has all the required tools properly set up before starting
+- Her risk-averse nature means she would want to know about and prepare all technical requirements upfront to avoid problems later
+- She can see a "Tools" tab clearly visible in the navigation menu of the syllabus page
+- Her comprehensive information processing style would drive her to want complete information about technical requirements before starting
+- As someone who prefers familiar technology and needs time to learn new tools, she would want to know what tools she needs to learn/install early in the term
+- The presence of a dedicated "Tools" section suggests this is an important aspect of course preparation, which aligns with her methodical approach</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Yes, ABI would likely be able to take this action because:
-1. The "Tools" tab is clearly visible in the navigation menu near the top of the page, appearing alongside other tabs like "Syllabus &amp; Schedule", "Course Introduction", etc.
-2. The tab is presented in a standard web interface format that most users would be familiar with.
-3. For someone like ABI who:
-- Likes to gather information comprehensively before proceeding
-- Prefers step-by-step instructions
-- Is not very confident about performing unfamiliar computer tasks
-The page layout provides:
-- A clear visual hierarchy
-- An obvious navigation structure
-- The "Tools" link is distinctly labeled and positioned where course setup information would logically be found
-The only potential hesitation ABI might have is whether clicking "Tools" will definitely lead to setup instructions, but given that she's looking for tools/setup information, this would be the most logical tab to check first.
-The page provides enough context and clear navigation options for ABI to feel comfortable taking this step in her information-gathering process.</t>
+          <t>Answer: YES
+Facets:
+1. Learning Style
+2. Information Processing Style
+3. Computer Self-Efficacy
+Why: ABI would know what to do at this step because:
+- The "Tools" tab is clearly visible in the navigation menu at the top of the syllabus page
+- The tab follows a conventional web interface pattern that ABI would be familiar with
+- The label "Tools" is straightforward and self-explanatory, not using any technical jargon that might confuse ABI
+- It follows a process-oriented approach (clicking clearly labeled tabs) which aligns with ABI's learning style
+- The tab is presented in a non-risky way - it's part of the main navigation alongside other important course sections
+- Given her comprehensive information processing style, she would notice this tab as part of the overall syllabus navigation structure
+- The interface is simple and clear enough that even with her low computer self-efficacy, she would feel confident clicking on a clearly labeled tab</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Looking at this syllabus page, clicking on the "Tools" tab would be a helpful step to find information about required course tools. The main course page shows several sections including Canvas, Ed Discussion, Teams, PyCharm, GitHub, and GradeScope. Each of these sections contains detailed setup instructions and requirements.
-However, simply clicking the "Tools" tab alone might not provide all the necessary setup information, since important tool details appear to be distributed throughout the syllabus page itself. The current page actually contains comprehensive information about the required tools and their setup processes.
-On this page, you can see:
-- PyCharm installation and setup instructions
-- GitHub configuration steps
-- Teams setup guidance
-- Ed Discussion access details
-- GradeScope usage information
-For optimal course preparation, it would be better to carefully read through each tool section on this syllabus page rather than just relying on the "Tools" tab navigation. The syllabus provides more context about how each tool will be used in the course alongside setup instructions.
-So while clicking the "Tools" tab might seem intuitive, in this case staying on the syllabus page would likely be more effective for getting a complete understanding of the required course tools and setup procedures.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: ABI would know she's on the right track because:
+- The page provides comprehensive, well-organized information about all required tools (Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope)
+- Each tool section has clear, step-by-step instructions for installation and setup, which aligns with her process-oriented learning style
+- The information is presented in a structured manner that supports her comprehensive information processing style:
+  * Clear headings for each tool
+  * Detailed explanations of what each tool is used for
+  * Specific installation instructions
+  * Usage guidelines
+- The page addresses her low computer self-efficacy by:
+  * Providing detailed instructions for technical tasks
+  * Explaining why each tool is needed
+  * Including links to additional help resources
+- The content is presented in a way that doesn't assume prior technical knowledge
+- The instructions are broken down into manageable steps, making it less overwhelming for someone who is risk-averse with technology</t>
         </is>
       </c>
     </row>

--- a/outputs/FIJI1.xlsx
+++ b/outputs/FIJI1.xlsx
@@ -450,10 +450,9 @@
 - The page provides explicit, clear instructions stating "To begin the course please click on Syllabus in the left pane"
 - The Syllabus link is clearly visible in the left navigation menu
 - There are multiple ways to access the syllabus (left menu and Syllabus button in the Start Here section)
-- The instructions are presented in a step-by-step manner which aligns with ABI's process-oriented learning style
-- The page is not overwhelming with too many options, making it easier for ABI with her low computer self-efficacy
-- The importance of the syllabus is clearly explained, which helps ABI understand why this step is necessary
-- The interface is straightforward without requiring any technical knowledge or risky exploration</t>
+- The instructions are presented in a step-by-step manner, which aligns with ABI's process-oriented learning style
+- The interface is simple and straightforward, not requiring any complex technical knowledge, which helps with ABI's low computer self-efficacy
+- The page clearly explains why reading the syllabus is important ("important information there"), which helps ABI understand the purpose and builds confidence in taking this action</t>
         </is>
       </c>
     </row>
@@ -467,15 +466,13 @@
 3. Motivations
 Why: ABI would know she's on the right track because:
 - The page title clearly shows "Course Syllabus" indicating she reached the correct destination
-- The page provides comprehensive course information including:
-  * A weekly schedule showing all course topics and deadlines
-  * Clear breakdown of grade weights (70% Assignments, 30% Quizzes)
-  * Multiple formats to access syllabus information (PDF, web view)
-  * Organized tabs for different aspects (Schedule, Tools, Course Introduction, etc.)
-- The information is presented in a structured, systematic way that aligns with her process-oriented learning style
-- The weekly schedule provides a clear timeline of what's due when, helping her plan her term
-- The page contains detailed information without requiring exploration or risky actions
-- The content is organized in a way that allows for comprehensive information gathering, matching her information processing style</t>
+- The page provides multiple organized sections (Syllabus &amp; Schedule, Tools, Course Introduction, etc.) which supports her comprehensive information processing style
+- There's a clear weekly schedule table showing course progression, assignments, and readings which helps her plan the term
+- The page includes important course information like grade weightage (Assignments 70%, Quizzes 30%, etc.)
+- Multiple formats of the syllabus are available (PDF, downloadable versions) which allows her to process the information thoroughly
+- The structured layout with clear headings and sections aligns with her process-oriented learning style
+- The detailed weekly schedule provides a comprehensive view of the course requirements, which satisfies her need to gather complete information before proceeding
+All these elements would assure ABI that she's making progress toward understanding what she needs to do to complete the course and plan her term effectively.</t>
         </is>
       </c>
     </row>
@@ -488,13 +485,12 @@
 2. Motivations
 3. Attitude Toward Risk
 Why: ABI would consider finding the summary of activities and deadlines as an essential step because:
-- This aligns with her comprehensive information processing style - she wants to understand all requirements before proceeding
-- The page clearly shows a weekly schedule with detailed breakdown of activities and due dates
-- ABI is risk-averse and would want to know all deadlines upfront to avoid missing assignments
-- The page provides clear grade weightage information (70% Assignments, 30% Quizzes) which helps in understanding course requirements
-- The structured weekly schedule helps ABI plan her term systematically without any surprises
-- Her motivation to complete course tasks properly would drive her to understand the complete schedule of activities
-- The information is presented in an organized manner that allows for thorough planning, which aligns with her careful approach to coursework</t>
+- Her comprehensive information processing style means she wants to understand all requirements and deadlines before proceeding
+- The page shows a clear weekly schedule table and grade weightage information which helps plan the term systematically
+- ABI is risk-averse and would want to know all deadlines and requirements upfront to avoid missing anything important
+- She is motivated to complete course tasks properly and would want to understand the complete schedule of activities
+- The presence of both a weekly schedule and grade distribution (Assignments 70%, Quizzes 30%, etc.) provides the comprehensive information she needs for planning
+- The structured presentation of information (with dates, topics, and requirements clearly laid out) aligns with her need to thoroughly understand course expectations</t>
         </is>
       </c>
     </row>
@@ -505,15 +501,15 @@
 Facets:
 1. Information Processing Style
 2. Computer Self-Efficacy
-3. None of the Above
-Why: ABI would likely struggle at this step because:
-- While there is a "Course Summary" heading visible, the section appears empty with just "Date", "Details", and "Due" columns but no actual content
-- The weekly schedule is presented separately and differently from the Course Summary section, which could be confusing
-- With ABI's comprehensive information processing style, she would be uncertain whether to focus on the empty Course Summary section or the Weekly Schedule below it
-- Given her low computer self-efficacy, she might question if she's doing something wrong when seeing an empty Course Summary section
-- The page presents two different ways to view schedule information (Course Summary and Weekly Schedule), which could overwhelm ABI
-- There's no clear instruction about which section (Course Summary or Weekly Schedule) would be more appropriate for finding activity deadlines
-- The disconnect between the section title "Course Summary" and its empty state would likely cause uncertainty for ABI</t>
+3. None of the Above (Information Overload)
+Why: ABI would struggle at this step because:
+- While there is a "Course Summary" heading, the section appears empty or incomplete with just "Date", "Details", and "Due" columns without actual content
+- The page presents multiple sources of information (Weekly Schedule, PDF downloads, grade distribution) which could overwhelm ABI
+- Given ABI's comprehensive information processing style, she would be confused about whether to focus on the empty Course Summary section or the Weekly Schedule table below it
+- With her low computer self-efficacy, she might question if she's missing something or if there's a technical issue with the empty Course Summary section
+- The presence of multiple PDF links and different sections (Syllabus &amp; Schedule, Tools, Course Introduction) makes it unclear which one contains the complete summary of activities and deadlines
+- The information is scattered across different sections and formats, making it difficult for ABI to be confident she's looking at the right place for the complete summary
+The page lacks a clear, single consolidated view of activities and deadlines, which would make ABI uncertain about whether she's taking the right action.</t>
         </is>
       </c>
     </row>
@@ -524,18 +520,22 @@
 Facets:
 1. Information Processing Style
 2. Computer Self-Efficacy
-3. Attitude Toward Risk
+3. None of the Above (Incomplete/Unclear Information)
 Why: ABI would not feel confident she's making progress because:
-- The Course Summary section appears empty with only column headers (Date, Details, Due) but no actual content
-- With her comprehensive information processing style, she would be uncertain if:
-  * She's looking at the right section
-  * The empty Course Summary is an error
-  * She needs to do something else to make the content appear
-- Given her low computer self-efficacy, the empty section would make her doubt if she's done something wrong
-- While there is a Weekly Schedule below, it's not clear if this is meant to replace or complement the empty Course Summary
-- Her risk-averse nature would make her hesitant to assume the Weekly Schedule is sufficient when there's an empty Course Summary section
-- The presence of two different schedule presentations (empty Course Summary and Weekly Schedule) creates ambiguity about which one contains the complete information she needs
-- The lack of clear connection between these sections would not give her confidence that she's found all the necessary deadline information</t>
+- The "Course Summary" section is empty/incomplete with only column headers (Date, Details, Due) but no actual content
+- Her comprehensive information processing style would make her uncertain if she's missing important information
+- The page presents information in multiple formats and locations:
+  * An empty Course Summary section
+  * A Weekly Schedule table with different information
+  * Multiple PDF downloads
+  * Grade distribution table
+- With her low computer self-efficacy, she would:
+  * Question if something is wrong with the page
+  * Wonder if she needs to click something else to see the summary
+  * Be unsure if she's looking at the right place
+- The scattered nature of information across different sections and formats would make it difficult for ABI to know if she has found all the necessary deadline and activity information
+- The presence of technical terms like "deliverable" without explanation might cause additional uncertainty
+ABI would likely feel frustrated and unsure about whether she has found all the information she needs to plan her term effectively.</t>
         </is>
       </c>
     </row>
@@ -547,13 +547,13 @@
 1. Attitude Toward Risk
 2. Computer Self-Efficacy
 3. Information Processing Style
-Why: ABI would consider finding the list of tools as an essential step because:
-- Given her low computer self-efficacy, she would want to ensure she has all the required tools properly set up before starting
-- Her risk-averse nature means she would want to know about and prepare all technical requirements upfront to avoid problems later
-- She can see a "Tools" tab clearly visible in the navigation menu of the syllabus page
-- Her comprehensive information processing style would drive her to want complete information about technical requirements before starting
-- As someone who prefers familiar technology and needs time to learn new tools, she would want to know what tools she needs to learn/install early in the term
-- The presence of a dedicated "Tools" section suggests this is an important aspect of course preparation, which aligns with her methodical approach</t>
+Why: ABI would consider finding the list of required tools as an essential step because:
+- Given her low computer self-efficacy, she would want to ensure she has all the necessary tools properly set up before starting the course
+- Her risk-averse nature means she would want to identify and resolve any potential technical setup issues early
+- She sees a "Tools" tab in the navigation menu, which aligns with her comprehensive information processing style - wanting to understand all requirements upfront
+- Setting up tools is a critical preparatory step that could affect her ability to complete course tasks
+- Her process-oriented learning style would make her want to ensure she has the proper technical environment set up before proceeding with course work
+- Given her tendency to avoid technical difficulties, she would want to verify tool requirements early to avoid problems later in the course</t>
         </is>
       </c>
     </row>
@@ -565,14 +565,14 @@
 1. Learning Style
 2. Information Processing Style
 3. Computer Self-Efficacy
-Why: ABI would know what to do at this step because:
-- The "Tools" tab is clearly visible in the navigation menu at the top of the syllabus page
-- The tab follows a conventional web interface pattern that ABI would be familiar with
-- The label "Tools" is straightforward and self-explanatory, not using any technical jargon that might confuse ABI
-- It follows a process-oriented approach (clicking clearly labeled tabs) which aligns with ABI's learning style
-- The tab is presented in a non-risky way - it's part of the main navigation alongside other important course sections
-- Given her comprehensive information processing style, she would notice this tab as part of the overall syllabus navigation structure
-- The interface is simple and clear enough that even with her low computer self-efficacy, she would feel confident clicking on a clearly labeled tab</t>
+Why: ABI would know to click the "Tools" tab because:
+- The "Tools" tab is clearly visible in the navigation menu at the top of the page
+- The tab name "Tools" is straightforward and self-explanatory, which helps with her low computer self-efficacy
+- The tab is presented in a standard web interface format (horizontal navigation menu) that would be familiar to ABI
+- It follows a process-oriented approach where navigation options are clearly labeled
+- The placement of "Tools" among other course-related tabs (Syllabus &amp; Schedule, Course Introduction) provides context that this is a legitimate path to find setup information
+- Her comprehensive information processing style would lead her to explore clearly labeled sections, and "Tools" directly relates to her goal of finding setup requirements
+- The tab is part of what appears to be the main navigation structure, making it a safe, low-risk choice for finding tool-related information</t>
         </is>
       </c>
     </row>
@@ -585,19 +585,17 @@
 2. Learning Style
 3. Computer Self-Efficacy
 Why: ABI would know she's on the right track because:
-- The page provides comprehensive, well-organized information about all required tools (Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope)
-- Each tool section has clear, step-by-step instructions for installation and setup, which aligns with her process-oriented learning style
-- The information is presented in a structured manner that supports her comprehensive information processing style:
-  * Clear headings for each tool
-  * Detailed explanations of what each tool is used for
-  * Specific installation instructions
-  * Usage guidelines
-- The page addresses her low computer self-efficacy by:
-  * Providing detailed instructions for technical tasks
-  * Explaining why each tool is needed
-  * Including links to additional help resources
-- The content is presented in a way that doesn't assume prior technical knowledge
-- The instructions are broken down into manageable steps, making it less overwhelming for someone who is risk-averse with technology</t>
+- The page provides clear, detailed sections for different tools (Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, Repl.it)
+- Instructions are presented in a step-by-step format, which aligns with her process-oriented learning style
+- Each tool section contains:
+  * Clear explanations of what the tool is for
+  * Detailed installation instructions
+  * Specific setup steps numbered in sequence
+- The information is comprehensive and well-organized, satisfying her need to gather complete information
+- Technical terms are explained and context is provided, which helps with her low computer self-efficacy
+- The instructions appear thorough and don't assume prior knowledge, which would make ABI feel more confident about following them
+- The page clearly shows all the tools needed for the course, helping her understand what she needs to set up to be successful
+The detailed, structured presentation of tool requirements and setup instructions would give ABI confidence that she's found the information she needs to properly prepare for the course.</t>
         </is>
       </c>
     </row>
